--- a/target/classes/examples/秸秆堆肥.xlsx
+++ b/target/classes/examples/秸秆堆肥.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_60C010E27DA7A313CC5E5D87A2BC687EBE992966" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56CF245F-48E8-4868-A2E3-E2D4475E79A7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,47 +15,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县</t>
-  </si>
-  <si>
-    <t>区县代码</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>秸秆堆肥量（吨)</t>
   </si>
   <si>
-    <t>天津市SCC</t>
-  </si>
-  <si>
-    <t>宝坻区</t>
-  </si>
-  <si>
-    <t>北辰区</t>
-  </si>
-  <si>
-    <t>650102</t>
-  </si>
-  <si>
-    <t>650103</t>
-  </si>
-  <si>
-    <t>650104</t>
-  </si>
-  <si>
     <t>1704002002</t>
+  </si>
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年份</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区县编码</t>
+    </r>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -84,10 +118,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,11 +164,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -133,14 +178,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 5" xfId="1"/>
-    <cellStyle name="常规 8" xfId="2"/>
+    <cellStyle name="常规 2 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 8" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -156,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,6 +282,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -266,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,134 +526,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.47265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="6">
+        <v>650104</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37555.589422156743</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.0905052400000004</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>37555.589422156743</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="6">
+        <v>650105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8379.4327695293705</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.2001</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.2001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8379.4327695293705</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>11111</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/target/classes/examples/秸秆堆肥.xlsx
+++ b/target/classes/examples/秸秆堆肥.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_60C010E27DA7A313CC5E5D87A2BC687EBE992966" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56CF245F-48E8-4868-A2E3-E2D4475E79A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACEEEF8-F297-4008-90F9-C53EE1B740C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="2040" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <t>秸秆堆肥量（吨)</t>
   </si>
   <si>
-    <t>1704002002</t>
-  </si>
-  <si>
     <t>SCC编码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -85,6 +82,9 @@
   <si>
     <t>BC排放量</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1701012002</t>
   </si>
 </sst>
 </file>
@@ -164,15 +164,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -527,153 +524,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>2015</v>
       </c>
-      <c r="C2" s="6">
-        <v>650104</v>
+      <c r="C2" s="5">
+        <v>210101</v>
       </c>
       <c r="D2" s="1">
         <v>37555.589422156743</v>
       </c>
-      <c r="E2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1.0905052400000004</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="E2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1.0905052400000004</v>
+      </c>
+      <c r="M2" s="6">
         <v>1.0905052400000004</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
         <v>2015</v>
       </c>
-      <c r="C3" s="6">
-        <v>650105</v>
+      <c r="C3" s="5">
+        <v>210102</v>
       </c>
       <c r="D3" s="1">
         <v>8379.4327695293705</v>
       </c>
-      <c r="E3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.2001</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0.2001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
+      <c r="E3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.2001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>